--- a/hardware/glass-break.xlsx
+++ b/hardware/glass-break.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="glass-break" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="130">
   <si>
     <t>Reference</t>
   </si>
@@ -31,7 +31,10 @@
     <t> Footprint</t>
   </si>
   <si>
-    <t>Part Number</t>
+    <t> Datasheet</t>
+  </si>
+  <si>
+    <t> Part Number</t>
   </si>
   <si>
     <t>JP1</t>
@@ -67,6 +70,9 @@
     <t>http://www.mouser.com/ds/2/146/SPX3819_DS_R200_082312-17072.pdf</t>
   </si>
   <si>
+    <t>ERJ-3GEYJ103V</t>
+  </si>
+  <si>
     <t>R3</t>
   </si>
   <si>
@@ -76,9 +82,6 @@
     <t>Resistors_SMD:R_0603</t>
   </si>
   <si>
-    <t>ERJ-3GEYJ103V</t>
-  </si>
-  <si>
     <t>MBR120-1</t>
   </si>
   <si>
@@ -94,250 +97,265 @@
     <t>C3</t>
   </si>
   <si>
-    <t>10uF</t>
+    <t>10uf</t>
+  </si>
+  <si>
+    <t>Capacitors_SMD:C_0805</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/400/lcc_commercial_general_en-837201.pdf</t>
+  </si>
+  <si>
+    <t>VJ0805G106KXQTW1BC</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>12pF</t>
+  </si>
+  <si>
+    <t>GRM0335C1H120GA01D</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>4.7 uF</t>
+  </si>
+  <si>
+    <t>C0603X5R1C472K030BA</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>1M</t>
+  </si>
+  <si>
+    <t>ERJ-3GEYJ105V</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>OPA344</t>
+  </si>
+  <si>
+    <t>Housings_SOIC:SOIC-8_3.9x4.9mm_Pitch1.27mm</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/609/OP275-879536.pdf</t>
+  </si>
+  <si>
+    <t>OPA344NA/3K</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>USB_OTG</t>
+  </si>
+  <si>
+    <t>Connect:USB_Micro-B</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/123/690-005-299-143-262410.pdf</t>
+  </si>
+  <si>
+    <t>10118194-0001LF</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>1K</t>
+  </si>
+  <si>
+    <t>ERJ-3EKF1001V</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>SW_PUSH</t>
+  </si>
+  <si>
+    <t>Buttons_Switches_SMD:SW_SPST_KMR2</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/60/KMR2_9aug12-25127.pdf</t>
+  </si>
+  <si>
+    <t>KMR211NG LFS</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>LEDs:LED_0805</t>
+  </si>
+  <si>
+    <t>LS Q976-NR-1</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>2.2K</t>
+  </si>
+  <si>
+    <t>ERJ-3GEYJ222V</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>CMC-5044PF-A</t>
+  </si>
+  <si>
+    <t>esp12e:Electret</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/670/cmc-5044pf-a-515902.pdf</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>ESP-WROOM-02</t>
+  </si>
+  <si>
+    <t>garage-opener:ESP-WROOM-02</t>
+  </si>
+  <si>
+    <t>http://espressif.com/en/products/hardware/esp-wroom-02/resources</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>BSS84LT1G</t>
+  </si>
+  <si>
+    <t>TO_SOT_Packages_SMD:SOT-23</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/308/BSS84LT1-D-105913.pdf</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>Q1</t>
+  </si>
+  <si>
+    <t>2N7002L</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/308/2N7002L-D-105484.pdf</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>4.7uF</t>
+  </si>
+  <si>
+    <t>VJ0805G475KXYTW1BC</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>FB1</t>
+  </si>
+  <si>
+    <t>BLM18PG330SN1D</t>
+  </si>
+  <si>
+    <t>http://www.murata.com/~/media/webrenewal/support/library/catalog/products/emc/emifil/c31e.ashx?la=en-us</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>FT230XS</t>
+  </si>
+  <si>
+    <t>Housings_SSOP:SSOP-16_3.9x4.9mm_Pitch0.635mm</t>
+  </si>
+  <si>
+    <t>http://www.mouser.com/ds/2/163/DS_FT230X-5395.pdf</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>1k</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>27R</t>
+  </si>
+  <si>
+    <t>ERJ-3GEYJ270V</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>47pf</t>
   </si>
   <si>
     <t>Capacitors_SMD:C_0603</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ds/2/400/lcc_commercial_general_en-837201.pdf</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>12pF</t>
-  </si>
-  <si>
-    <t>GRM0335C1H120GA01D</t>
-  </si>
-  <si>
-    <t>C4</t>
-  </si>
-  <si>
-    <t>4.7 uF</t>
-  </si>
-  <si>
-    <t>Capacitors_SMD:C_0805</t>
-  </si>
-  <si>
-    <t>C0603X5R1C472K030BA</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>1M</t>
-  </si>
-  <si>
-    <t>ERJ-3GEYJ105V</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>U2</t>
-  </si>
-  <si>
-    <t>OP275</t>
-  </si>
-  <si>
-    <t>Housings_SOIC:SOIC-8_3.9x4.9mm_Pitch1.27mm</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ds/2/609/OP275-879536.pdf</t>
-  </si>
-  <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>USB_OTG</t>
-  </si>
-  <si>
-    <t>Connect:USB_Micro-B</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>1K</t>
-  </si>
-  <si>
-    <t>ERJ-3EKF1001V</t>
-  </si>
-  <si>
-    <t>SW2</t>
-  </si>
-  <si>
-    <t>SW_PUSH</t>
-  </si>
-  <si>
-    <t>Buttons_Switches_SMD:SW_SPST_KMR2</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ds/2/60/KMR2_9aug12-25127.pdf</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>LEDs:LED_0805</t>
-  </si>
-  <si>
-    <t>LS Q976-NR-1</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>2.2K</t>
-  </si>
-  <si>
-    <t>ERJ-3GEYJ222V</t>
-  </si>
-  <si>
-    <t>U3</t>
-  </si>
-  <si>
-    <t>CMC-5044PF-A</t>
-  </si>
-  <si>
-    <t>esp12e:Electret</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ds/2/670/cmc-5044pf-a-515902.pdf</t>
-  </si>
-  <si>
-    <t>U1</t>
-  </si>
-  <si>
-    <t>ESP-WROOM-02</t>
-  </si>
-  <si>
-    <t>garage-opener:ESP-WROOM-02</t>
-  </si>
-  <si>
-    <t>http://espressif.com/en/products/hardware/esp-wroom-02/resources</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>BSS84LT1G</t>
-  </si>
-  <si>
-    <t>TO_SOT_Packages_SMD:SOT-23</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ds/2/308/BSS84LT1-D-105913.pdf</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>2N7002L</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ds/2/308/2N7002L-D-105484.pdf</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>C8</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>VJ0805G475KXYTW1BC</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>FB1</t>
-  </si>
-  <si>
-    <t>BLM18PG330SN1D</t>
-  </si>
-  <si>
-    <t>http://www.murata.com/~/media/webrenewal/support/library/catalog/products/emc/emifil/c31e.ashx?la=en-us</t>
-  </si>
-  <si>
-    <t>U4</t>
-  </si>
-  <si>
-    <t>FT230XS</t>
-  </si>
-  <si>
-    <t>Housings_SSOP:SSOP-16_3.9x4.9mm_Pitch0.635mm</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ds/2/163/DS_FT230X-5395.pdf</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>1k</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>R16</t>
-  </si>
-  <si>
-    <t>R17</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>27R</t>
-  </si>
-  <si>
-    <t>ERJ-3GEYJ270V</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>C6</t>
-  </si>
-  <si>
-    <t>47pf</t>
   </si>
   <si>
     <t>VJ0603A470JXACW1BC</t>
@@ -487,10 +505,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -499,7 +517,8 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="17.5510204081633"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="46.030612244898"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="88.545918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="21.9948979591837"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -515,707 +534,857 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>18</v>
+      <c r="E6" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>18</v>
+      <c r="E13" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B20" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>18</v>
+      <c r="E20" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>70</v>
+        <v>75</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>18</v>
+      <c r="E24" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>75</v>
+        <v>80</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>62</v>
+        <v>67</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>117</v>
+        <v>123</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>106</v>
+        <v>112</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
